--- a/backend/leads_list.xlsx
+++ b/backend/leads_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotemweiss/Desktop/gpt-marketer/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DBC10D-831F-CC4E-A97B-8E075AC106E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F46DB91-4ACE-1E4F-971B-89BADF75ADB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Jordan Holland</t>
   </si>
   <si>
-    <t>mark.morrison@deltacorp.com</t>
-  </si>
-  <si>
     <t>christopher.martinez@betamarketing.com</t>
   </si>
   <si>
@@ -65,13 +62,16 @@
   </si>
   <si>
     <t>Marketing Manager</t>
+  </si>
+  <si>
+    <t>mark.morrison@nvidia.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,16 +128,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,7 +446,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -460,11 +471,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -472,10 +483,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -483,10 +494,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -494,13 +505,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{249694E5-4D89-1346-A280-C4A1282D935E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/backend/leads_list.xlsx
+++ b/backend/leads_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotemweiss/Desktop/gpt-marketer/backend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzisbrod/PycharmProjects/gpt-marketer/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F46DB91-4ACE-1E4F-971B-89BADF75ADB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20C2438-1279-F04C-AFA5-B728D5BCB0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>christopher.martinez@betamarketing.com</t>
   </si>
   <si>
-    <t>joanne.lee@gammasolutions.com</t>
-  </si>
-  <si>
     <t>jordan.holland@alphatech.com</t>
   </si>
   <si>
@@ -64,7 +61,40 @@
     <t>Marketing Manager</t>
   </si>
   <si>
-    <t>mark.morrison@nvidia.com</t>
+    <t>joanne.lee@amazon.com</t>
+  </si>
+  <si>
+    <t>Tim Cook</t>
+  </si>
+  <si>
+    <t>tim.cook@apple.com</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>ajohnson@adidas.com</t>
+  </si>
+  <si>
+    <t>mark.morrison@uber.com</t>
+  </si>
+  <si>
+    <t>Thomas Cohen</t>
+  </si>
+  <si>
+    <t>thomas.cohen@sony.com</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Linda Smith</t>
+  </si>
+  <si>
+    <t>linda.smith@lenovo.com</t>
   </si>
 </sst>
 </file>
@@ -443,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -469,10 +499,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -480,10 +510,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -491,7 +521,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -502,18 +532,67 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{249694E5-4D89-1346-A280-C4A1282D935E}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{249694E5-4D89-1346-A280-C4A1282D935E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9FA43786-3814-4945-83A7-39ADDB2CE5F0}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{7D6E257F-4DAE-8045-A772-D8687B0B9297}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{5DFB3C69-E5C4-074A-AED4-24BED29CAC4B}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{4CD377B3-724A-F74D-B075-13571DCD0F5F}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{95346913-F8FC-1F4B-8630-6A59C0FB03F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
